--- a/medicine/Enfance/Macdonald_Hastings/Macdonald_Hastings.xlsx
+++ b/medicine/Enfance/Macdonald_Hastings/Macdonald_Hastings.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Macdonald Hastings, né le 6 octobre 1909 à Southwark en Londres et mort le 4 octobre 1982 à Basingstoke, Hampshire, est un journaliste, scénariste et écrivain britannique, auteur  de roman policier et d’ouvrages de littérature d’enfance et de jeunesse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Fils de l’acteur et auteur dramatique Basil Macdonald Hastings, il est né dans le quartier londonien de Southwark. Il fait ses études dans un établissement catholique du Lancashire qu’il décrit dans son autobiographie Jesuit Child (1971).
 Journaliste, puis correspondant de guerre pour le journal Picture Post de Londres pendant la Deuxième Guerre mondiale, il devient rédacteur au Strand Magazine à la fin du conflit, puis fonde le magazine Country Fair en 1951. Il collabore également à de nombreux périodiques britanniques, signant notamment du pseudonyme de Lemuel Gulliver, des articles critiques sur la société anglaise.  Il travaille aussi comme scripteur à la radio et à la télévision britanniques.  Il acquiert d’ailleurs une grande célébrité dans les années 1950-1960 en participant à une série de mini-documentaires pour l’émission Tonight (1957 TV series) (en).
@@ -546,25 +560,178 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Romans
-Série Montague Cork
-Cork on the Water ou Fish and Kill (1951) Publié en français sous le titre Cork au fil de l’eau, Paris, Librairie des Champs-Élysées, Le Masque no 510, 1955 ; réédition, Paris, Librairie des Champs-Élysées, Le Club des Masques no 61, 1968
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>Série Montague Cork</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Cork on the Water ou Fish and Kill (1951) Publié en français sous le titre Cork au fil de l’eau, Paris, Librairie des Champs-Élysées, Le Masque no 510, 1955 ; réédition, Paris, Librairie des Champs-Élysées, Le Club des Masques no 61, 1968
 Cork in the Bottle (1953) Publié en français sous le titre Cork dans la bagarre, Paris, Librairie des Champs-Élysées, Le Masque no 546, 1956
 Cork and the Serpent (1955)
 Cork in the Doghouse (1957)
-Cork on the Telly ou Cork on Location (1966)
-Autre roman non-policier
-A Glimpse o Arcadia: a Story of Nineteenth (1936)
-Littérature d’enfance et de jeunesse
-Eagle Special Investigator (1953)
+Cork on the Telly ou Cork on Location (1966)</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>Autre roman non-policier</t>
+        </is>
+      </c>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>A Glimpse o Arcadia: a Story of Nineteenth (1936)</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Romans</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>Littérature d’enfance et de jeunesse</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t>Eagle Special Investigator (1953)
 Adventure Calling (1955)
 The Search of the Yellow Little Men (1956)
 Men of Glory (1958)
 More Men of Glory (1959)
-Sydney the Sparrow (1973)
-Autobiographie
-Jesuit Child (1971)
-Autres publications
+Sydney the Sparrow (1973)</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Autobiographie</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Jesuit Child (1971)</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Autres publications</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Passed as Censored (1941)
 Rolls Royce: the Story of a Name (1950)
 The Other Mr. Churchill: a Lifetime of Shooting and Murder (1953), en collaboration avec Robert Churchill
@@ -578,42 +745,157 @@
 Shooting, Why We Miss: Questions and Answers on the Successful Use of the Shotgun (1976)
 Game Book: Sporting round the World (1979)
 The Shotgun (1981)
-Nouvelles
-Nouvelles de la série Montague Cork
-Mr. Cork’s Secret (1953)
-Filmographie
-Scénarios
-1964 : Call the Gun Expert, série télévisée britannique de 6 épisodes de 30 minutes.
-Adaptation
-1968 : : Cork on the Water, épisode réalisé par Tony Wickert pour la série télévisée britannique Detective (saison 2, épisode 11), avec Colin Douglas (en) dans le rôle de Montague Cork.</t>
-        </is>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Macdonald_Hastings</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>Portail:Enfance/Articles liés</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>Nouvelles</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>Nouvelles de la série Montague Cork</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t>Mr. Cork’s Secret (1953)</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>Scénarios</t>
+        </is>
+      </c>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t>1964 : Call the Gun Expert, série télévisée britannique de 6 épisodes de 30 minutes.</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Œuvre</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Filmographie</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>Adaptation</t>
+        </is>
+      </c>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t>1968 : : Cork on the Water, épisode réalisé par Tony Wickert pour la série télévisée britannique Detective (saison 2, épisode 11), avec Colin Douglas (en) dans le rôle de Montague Cork.</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>Portail:Enfance/Articles liés</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Macdonald_Hastings</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
         <is>
           <t>Sources</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F12" t="inlineStr"/>
+      <c r="G12" t="inlineStr"/>
+      <c r="H12" t="inlineStr">
         <is>
           <t>Jacques Baudou et Jean-Jacques Schleret, Le Vrai Visage du Masque, vol. 1, Paris, Futuropolis, 1984, 476 p. (OCLC 311506692), p. 238.
 Claude Mesplède (dir.), Dictionnaire des littératures policières, vol. 1 : A - I, Nantes, Joseph K, coll. « Temps noir », 2007, 1054 p. (ISBN 978-2-910686-44-4, OCLC 315873251), p. 943.
